--- a/database/data migration.xlsx
+++ b/database/data migration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\fair\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91334768-FD9A-44B3-810D-ACD60A104ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C2F5E8-CD06-4E6A-BE4F-E259450DE0C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{12A069F4-CF4E-493D-AC4F-33E67FDDD4B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{12A069F4-CF4E-493D-AC4F-33E67FDDD4B3}"/>
   </bookViews>
   <sheets>
     <sheet name="iPhone" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -480,13 +480,31 @@
   </si>
   <si>
     <t>#FF0000</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/DkrrNG3/15-pink.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/gZJg5Z1/14-blue.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/FbtvyjY/13-Red.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +522,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -523,10 +549,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -539,8 +566,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -853,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147116F5-6126-4A88-AD72-5DEFD4C3A13E}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="S32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48:S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2756,8 +2786,9 @@
       <c r="P34" t="s">
         <v>24</v>
       </c>
-      <c r="Q34" s="2">
-        <v>45608</v>
+      <c r="Q34" s="6" t="str">
+        <f>_xlfn.CONCAT("2024-02-02")</f>
+        <v>2024-02-02</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" ref="R34:R45" si="3">_xlfn.CONCAT("img/iPhone_images/",B34,".png")</f>
@@ -2765,7 +2796,7 @@
       </c>
       <c r="S34" t="str">
         <f>_xlfn.CONCAT("(",A34,",'",B34,"','",C34,"',",G34,",",H34,",'",I34,"','",J34,"','",K34,"','",L34,"','",M34,"','",N34,"','",P34,"',",Q34,",1,'",R34,"'),")</f>
-        <v>(0,'ip_15_pro_max','Iphone 15 Pro Max',0,0,'Super Retina OLED, 1242x2688','iOS 18.2.1','12MP(wide), 12MP(tele)','7MP','Apple A17 Pro (3nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45608,1,'img/iPhone_images/ip_15_pro_max.png'),</v>
+        <v>(0,'ip_15_pro_max','Iphone 15 Pro Max',0,0,'Super Retina OLED, 1242x2688','iOS 18.2.1','12MP(wide), 12MP(tele)','7MP','Apple A17 Pro (3nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_15_pro_max.png'),</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -2808,16 +2839,17 @@
       <c r="P35" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="2">
-        <v>45609</v>
+      <c r="Q35" s="6" t="str">
+        <f t="shared" ref="Q35:Q44" si="4">_xlfn.CONCAT("2024-02-02")</f>
+        <v>2024-02-02</v>
       </c>
       <c r="R35" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_15_pro.png</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" ref="S35:S45" si="4">_xlfn.CONCAT("(",A35,",'",B35,"','",C35,"',",G35,",",H35,",'",I35,"','",J35,"','",K35,"','",L35,"','",M35,"','",N35,"','",P35,"',",Q35,",1,'",R35,"'),")</f>
-        <v>(1,'ip_15_pro','Iphone 15 Pro',0,0,'Super Retina OLED, 1242x2689','iOS 18.2.2','12MP(wide), 12MP(tele)','7MP','Apple A17 Pro (3nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45609,1,'img/iPhone_images/ip_15_pro.png'),</v>
+        <f t="shared" ref="S35:S45" si="5">_xlfn.CONCAT("(",A35,",'",B35,"','",C35,"',",G35,",",H35,",'",I35,"','",J35,"','",K35,"','",L35,"','",M35,"','",N35,"','",P35,"',",Q35,",1,'",R35,"'),")</f>
+        <v>(1,'ip_15_pro','Iphone 15 Pro',0,0,'Super Retina OLED, 1242x2689','iOS 18.2.2','12MP(wide), 12MP(tele)','7MP','Apple A17 Pro (3nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_15_pro.png'),</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -2869,16 +2901,17 @@
       <c r="P36" t="s">
         <v>24</v>
       </c>
-      <c r="Q36" s="2">
-        <v>45610</v>
+      <c r="Q36" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>2024-02-02</v>
       </c>
       <c r="R36" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_15_plus.png</v>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="4"/>
-        <v>(2,'ip_15_plus','Iphone 15 Plus',0,0,'Super Retina OLED, 1242x2690','iOS 18.2.3','12MP(wide)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45610,1,'img/iPhone_images/ip_15_plus.png'),</v>
+        <f t="shared" si="5"/>
+        <v>(2,'ip_15_plus','Iphone 15 Plus',0,0,'Super Retina OLED, 1242x2690','iOS 18.2.3','12MP(wide)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_15_plus.png'),</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2921,16 +2954,17 @@
       <c r="P37" t="s">
         <v>24</v>
       </c>
-      <c r="Q37" s="2">
-        <v>45611</v>
+      <c r="Q37" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>2024-02-02</v>
       </c>
       <c r="R37" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_15.png</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="4"/>
-        <v>(3,'ip_15','Iphone 15',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.4','12MP(wide)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45611,1,'img/iPhone_images/ip_15.png'),</v>
+        <f t="shared" si="5"/>
+        <v>(3,'ip_15','Iphone 15',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.4','12MP(wide)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_15.png'),</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -2982,16 +3016,17 @@
       <c r="P38" t="s">
         <v>24</v>
       </c>
-      <c r="Q38" s="2">
-        <v>45612</v>
+      <c r="Q38" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>2024-02-02</v>
       </c>
       <c r="R38" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_14_pro_max.png</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="4"/>
-        <v>(4,'ip_14_pro_max','Iphone 14 Pro Max',0,0,'Super Retina OLED, 1242x2692','iOS 18.2.5','12MP(wide), 12MP(tele)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45612,1,'img/iPhone_images/ip_14_pro_max.png'),</v>
+        <f t="shared" si="5"/>
+        <v>(4,'ip_14_pro_max','Iphone 14 Pro Max',0,0,'Super Retina OLED, 1242x2692','iOS 18.2.5','12MP(wide), 12MP(tele)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_14_pro_max.png'),</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3034,16 +3069,17 @@
       <c r="P39" t="s">
         <v>24</v>
       </c>
-      <c r="Q39" s="2">
-        <v>45613</v>
+      <c r="Q39" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>2024-02-02</v>
       </c>
       <c r="R39" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_14_pro.png</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="4"/>
-        <v>(5,'ip_14_pro','Iphone 14 Pro',0,0,'Super Retina OLED, 1242x2693','iOS 18.2.6','12MP(wide), 12MP(tele)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45613,1,'img/iPhone_images/ip_14_pro.png'),</v>
+        <f t="shared" si="5"/>
+        <v>(5,'ip_14_pro','Iphone 14 Pro',0,0,'Super Retina OLED, 1242x2693','iOS 18.2.6','12MP(wide), 12MP(tele)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_14_pro.png'),</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3095,16 +3131,17 @@
       <c r="P40" t="s">
         <v>24</v>
       </c>
-      <c r="Q40" s="2">
-        <v>45614</v>
+      <c r="Q40" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>2024-02-02</v>
       </c>
       <c r="R40" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_14_plus.png</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="4"/>
-        <v>(6,'ip_14_plus','Iphone 14 Plus',0,0,'Super Retina OLED, 1242x2694','iOS 18.2.7','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45614,1,'img/iPhone_images/ip_14_plus.png'),</v>
+        <f t="shared" si="5"/>
+        <v>(6,'ip_14_plus','Iphone 14 Plus',0,0,'Super Retina OLED, 1242x2694','iOS 18.2.7','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_14_plus.png'),</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3147,16 +3184,17 @@
       <c r="P41" t="s">
         <v>24</v>
       </c>
-      <c r="Q41" s="2">
-        <v>45615</v>
+      <c r="Q41" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>2024-02-02</v>
       </c>
       <c r="R41" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_14.png</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="4"/>
-        <v>(7,'ip_14','Iphone 14',0,0,'Super Retina OLED, 1242x2695','iOS 18.2.8','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45615,1,'img/iPhone_images/ip_14.png'),</v>
+        <f t="shared" si="5"/>
+        <v>(7,'ip_14','Iphone 14',0,0,'Super Retina OLED, 1242x2695','iOS 18.2.8','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_14.png'),</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3208,16 +3246,17 @@
       <c r="P42" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="2">
-        <v>45616</v>
+      <c r="Q42" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>2024-02-02</v>
       </c>
       <c r="R42" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_13_pro_max.png</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="4"/>
-        <v>(8,'ip_13_pro_max','Iphone 13 Pro Max',0,0,'Super Retina OLED, 1242x2696','iOS 18.2.9','12MP(wide), 12MP(tele)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45616,1,'img/iPhone_images/ip_13_pro_max.png'),</v>
+        <f t="shared" si="5"/>
+        <v>(8,'ip_13_pro_max','Iphone 13 Pro Max',0,0,'Super Retina OLED, 1242x2696','iOS 18.2.9','12MP(wide), 12MP(tele)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_13_pro_max.png'),</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3260,16 +3299,17 @@
       <c r="P43" t="s">
         <v>24</v>
       </c>
-      <c r="Q43" s="2">
-        <v>45617</v>
+      <c r="Q43" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>2024-02-02</v>
       </c>
       <c r="R43" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_13_pro.png</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="4"/>
-        <v>(9,'ip_13_pro','Iphone 13 Pro',0,0,'Super Retina OLED, 1242x2697','iOS 18.2.10','12MP(wide), 12MP(tele)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45617,1,'img/iPhone_images/ip_13_pro.png'),</v>
+        <f t="shared" si="5"/>
+        <v>(9,'ip_13_pro','Iphone 13 Pro',0,0,'Super Retina OLED, 1242x2697','iOS 18.2.10','12MP(wide), 12MP(tele)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_13_pro.png'),</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3321,16 +3361,17 @@
       <c r="P44" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="2">
-        <v>45631</v>
+      <c r="Q44" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>2024-02-02</v>
       </c>
       <c r="R44" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_13_plus.png</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,'ip_13_plus','Iphone 13 Plus',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.1','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45631,1,'img/iPhone_images/ip_13_plus.png'),</v>
+        <f t="shared" si="5"/>
+        <v>(10,'ip_13_plus','Iphone 13 Plus',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.1','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_13_plus.png'),</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3382,22 +3423,778 @@
       <c r="P45" t="s">
         <v>24</v>
       </c>
-      <c r="Q45" s="2">
-        <v>45631</v>
+      <c r="Q45" s="6" t="str">
+        <f>_xlfn.CONCAT("2024-02-02")</f>
+        <v>2024-02-02</v>
       </c>
       <c r="R45" t="str">
         <f t="shared" si="3"/>
         <v>img/iPhone_images/ip_13.png</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="4"/>
-        <v>(11,'ip_13','Iphone 13',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.1','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',45631,1,'img/iPhone_images/ip_13.png'),</v>
+        <f t="shared" si="5"/>
+        <v>(11,'ip_13','Iphone 13',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.1','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',2024-02-02,1,'img/iPhone_images/ip_13.png'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO `iphones` (`",A48,"`,`",B48,"`,`",C48,"`,`",G48,"`,`",H48,"`,`",I48,"`,`",J48,"`,`",K48,"`,`",L48,"`,`",M48,"`,`",N48,"`,`",P48,"`,`show`,`",R48,"`) VALUES ")</f>
+        <v xml:space="preserve">INSERT INTO `iphones` (`id`,`model`,`name`,`stok_spare`,`stok_ready`,`display`,`os`,`rearcam`,`selfie`,`chipset`,`battery`,`dimention`,`show`,`img`) VALUES </v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>78000</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" t="s">
+        <v>81</v>
+      </c>
+      <c r="N49" t="s">
+        <v>85</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="6" t="str">
+        <f>_xlfn.CONCAT("2024-02-02")</f>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="S49" t="str">
+        <f>_xlfn.CONCAT("(",A49,",'",B49,"','",C49,"',",G49,",",H49,",'",I49,"','",J49,"','",K49,"','",L49,"','",M49,"','",N49,"','",P49,"',1,'",R49,"'),")</f>
+        <v>(0,'ip_15_pro_max','Iphone 15 Pro Max',0,0,'Super Retina OLED, 1242x2688','iOS 18.2.1','12MP(wide), 12MP(tele)','7MP','Apple A17 Pro (3nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>78000</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" t="s">
+        <v>113</v>
+      </c>
+      <c r="K50" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" t="s">
+        <v>81</v>
+      </c>
+      <c r="N50" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="6" t="str">
+        <f t="shared" ref="Q50:Q59" si="6">_xlfn.CONCAT("2024-02-02")</f>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" ref="S50:S60" si="7">_xlfn.CONCAT("(",A50,",'",B50,"','",C50,"',",G50,",",H50,",'",I50,"','",J50,"','",K50,"','",L50,"','",M50,"','",N50,"','",P50,"',1,'",R50,"'),")</f>
+        <v>(1,'ip_15_pro','Iphone 15 Pro',0,0,'Super Retina OLED, 1242x2689','iOS 18.2.2','12MP(wide), 12MP(tele)','7MP','Apple A17 Pro (3nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>65000</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" t="s">
+        <v>80</v>
+      </c>
+      <c r="L51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" t="s">
+        <v>82</v>
+      </c>
+      <c r="N51" t="s">
+        <v>85</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="7"/>
+        <v>(2,'ip_15_plus','Iphone 15 Plus',0,0,'Super Retina OLED, 1242x2690','iOS 18.2.3','12MP(wide)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52">
+        <v>65000</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>115</v>
+      </c>
+      <c r="K52" t="s">
+        <v>80</v>
+      </c>
+      <c r="L52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" t="s">
+        <v>82</v>
+      </c>
+      <c r="N52" t="s">
+        <v>85</v>
+      </c>
+      <c r="P52" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="7"/>
+        <v>(3,'ip_15','Iphone 15',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.4','12MP(wide)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>70000</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N53" t="s">
+        <v>85</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="7"/>
+        <v>(4,'ip_14_pro_max','Iphone 14 Pro Max',0,0,'Super Retina OLED, 1242x2692','iOS 18.2.5','12MP(wide), 12MP(tele)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54">
+        <v>70000</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>108</v>
+      </c>
+      <c r="J54" t="s">
+        <v>117</v>
+      </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" t="s">
+        <v>82</v>
+      </c>
+      <c r="N54" t="s">
+        <v>85</v>
+      </c>
+      <c r="P54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q54" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="7"/>
+        <v>(5,'ip_14_pro','Iphone 14 Pro',0,0,'Super Retina OLED, 1242x2693','iOS 18.2.6','12MP(wide), 12MP(tele)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>60000</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>109</v>
+      </c>
+      <c r="J55" t="s">
+        <v>118</v>
+      </c>
+      <c r="K55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" t="s">
+        <v>83</v>
+      </c>
+      <c r="N55" t="s">
+        <v>85</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P55" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R55" t="s">
+        <v>152</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="7"/>
+        <v>(6,'ip_14_plus','Iphone 14 Plus',0,0,'Super Retina OLED, 1242x2694','iOS 18.2.7','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56">
+        <v>60000</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J56" t="s">
+        <v>119</v>
+      </c>
+      <c r="K56" t="s">
+        <v>80</v>
+      </c>
+      <c r="L56" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" t="s">
+        <v>83</v>
+      </c>
+      <c r="N56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R56" t="s">
+        <v>152</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="7"/>
+        <v>(7,'ip_14','Iphone 14',0,0,'Super Retina OLED, 1242x2695','iOS 18.2.8','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>65000</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>111</v>
+      </c>
+      <c r="J57" t="s">
+        <v>120</v>
+      </c>
+      <c r="K57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" t="s">
+        <v>83</v>
+      </c>
+      <c r="N57" t="s">
+        <v>85</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P57" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R57" t="s">
+        <v>154</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="7"/>
+        <v>(8,'ip_13_pro_max','Iphone 13 Pro Max',0,0,'Super Retina OLED, 1242x2696','iOS 18.2.9','12MP(wide), 12MP(tele)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58">
+        <v>65000</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" t="s">
+        <v>121</v>
+      </c>
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" t="s">
+        <v>83</v>
+      </c>
+      <c r="N58" t="s">
+        <v>85</v>
+      </c>
+      <c r="P58" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q58" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R58" t="s">
+        <v>154</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="7"/>
+        <v>(9,'ip_13_pro','Iphone 13 Pro',0,0,'Super Retina OLED, 1242x2697','iOS 18.2.10','12MP(wide), 12MP(tele)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59">
+        <v>61000</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59" t="s">
+        <v>80</v>
+      </c>
+      <c r="L59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" t="s">
+        <v>83</v>
+      </c>
+      <c r="N59" t="s">
+        <v>85</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P59" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R59" t="s">
+        <v>153</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,'ip_13_plus','Iphone 13 Plus',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.1','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60">
+        <v>61000</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" t="s">
+        <v>79</v>
+      </c>
+      <c r="K60" t="s">
+        <v>80</v>
+      </c>
+      <c r="L60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" t="s">
+        <v>83</v>
+      </c>
+      <c r="N60" t="s">
+        <v>85</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P60" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q60" s="6" t="str">
+        <f>_xlfn.CONCAT("2024-02-02")</f>
+        <v>2024-02-02</v>
+      </c>
+      <c r="R60" t="s">
+        <v>153</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="7"/>
+        <v>(11,'ip_13','Iphone 13',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.1','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="R49" r:id="rId1" xr:uid="{70EC2FA6-E531-403F-84BC-55AEE3D672C4}"/>
+    <hyperlink ref="R50" r:id="rId2" xr:uid="{367FF2CB-2605-4CD1-8EC7-CE777A30B47A}"/>
+    <hyperlink ref="R51" r:id="rId3" xr:uid="{ADA2F353-5332-4D50-8A7D-643A5FD8FE71}"/>
+    <hyperlink ref="R52" r:id="rId4" xr:uid="{6E0FDCE6-4DBB-48C8-A3BB-AD5AC563A816}"/>
+    <hyperlink ref="R53" r:id="rId5" xr:uid="{A0DBC183-8ACF-42C4-9A97-43D9B3623BFE}"/>
+    <hyperlink ref="R54" r:id="rId6" xr:uid="{3A0C08E3-49D8-4549-9F16-A8E5C682DDEB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3405,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8881C2B0-E8F1-4E72-B4F2-8D5DC553F0F0}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/database/data migration.xlsx
+++ b/database/data migration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\fair\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C2F5E8-CD06-4E6A-BE4F-E259450DE0C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153D8BDE-9018-48D0-9D57-ADE8ACA60037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{12A069F4-CF4E-493D-AC4F-33E67FDDD4B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{12A069F4-CF4E-493D-AC4F-33E67FDDD4B3}"/>
   </bookViews>
   <sheets>
     <sheet name="iPhone" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="178">
   <si>
     <t>id</t>
   </si>
@@ -498,6 +498,75 @@
   </si>
   <si>
     <t>https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png</t>
+  </si>
+  <si>
+    <t>unit_color_id</t>
+  </si>
+  <si>
+    <t>iphone_id</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/G54xHFz/13-blue.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/SPc2cvr/13-Green.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/zH0H4sf/13-Midnight.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/2PbYkr7/13-pink.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/WyPXmLy/13-pro-alpine-green.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/94KbKcg/13-pro-gold.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/88kK672/13-pro-graphite.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/SB0GZkY/13-pro-silver.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/Xsr5HwY/14-purple.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/wgM7L7S/14-silver.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/101ZLzg/14-starlight.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/dpYFTkc/14-yellow.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/3Mf7NJ0/14-pro-gold.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/PxpDYPG/14-pro-space-black.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/w7ts4VZ/15-black.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/VTMLcSj/15-blue.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/JpWXfJ4/15-green.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/JrzkGF3/15-yellow.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/CBPmjq2/15-pro-blue-titanium.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/hgX9HRC/15-pro-white-titanium.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co.com/zGLg5Pn/15-pro-natural-titanium.png</t>
   </si>
 </sst>
 </file>
@@ -885,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147116F5-6126-4A88-AD72-5DEFD4C3A13E}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S48" sqref="S48:S60"/>
     </sheetView>
   </sheetViews>
@@ -4200,18 +4269,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8881C2B0-E8F1-4E72-B4F2-8D5DC553F0F0}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4547,6 +4616,996 @@
       <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>(20,'Red','#FF0000'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="25.5">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO `iphone_colors` (`",A23,"`,`",B23,"`,`",C23,"`,`",D23,"`) VALUES")</f>
+        <v>INSERT INTO `iphone_colors` (`id`,`iphone_id`,`unit_color_id`,`img`) VALUES</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="str">
+        <f>_xlfn.CONCAT("(",A24,",",B24,",",C24,",'",D24,"'),")</f>
+        <v>(1,11,8,'https://i.ibb.co.com/G54xHFz/13-blue.png'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E77" si="1">_xlfn.CONCAT("(",A25,",",B25,",",C25,",'",D25,"'),")</f>
+        <v>(2,10,8,'https://i.ibb.co.com/G54xHFz/13-blue.png'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>(3,11,7,'https://i.ibb.co.com/SPc2cvr/13-Green.png'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>(4,10,7,'https://i.ibb.co.com/SPc2cvr/13-Green.png'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>(5,11,16,'https://i.ibb.co.com/zH0H4sf/13-Midnight.png'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>(6,10,16,'https://i.ibb.co.com/zH0H4sf/13-Midnight.png'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>(7,11,6,'https://i.ibb.co.com/2PbYkr7/13-pink.png'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>(8,10,6,'https://i.ibb.co.com/2PbYkr7/13-pink.png'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>(9,11,20,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,10,20,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>(11,9,19,'https://i.ibb.co.com/WyPXmLy/13-pro-alpine-green.png'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>(12,8,19,'https://i.ibb.co.com/WyPXmLy/13-pro-alpine-green.png'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>(13,9,11,'https://i.ibb.co.com/94KbKcg/13-pro-gold.png'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>(14,8,11,'https://i.ibb.co.com/94KbKcg/13-pro-gold.png'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>(15,9,18,'https://i.ibb.co.com/88kK672/13-pro-graphite.png'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>(16,8,18,'https://i.ibb.co.com/88kK672/13-pro-graphite.png'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>(17,9,17,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>(18,8,17,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>(19,9,14,'https://i.ibb.co.com/SB0GZkY/13-pro-silver.png'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>(20,8,14,'https://i.ibb.co.com/SB0GZkY/13-pro-silver.png'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>(21,7,8,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>(22,6,8,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>(23,7,15,'https://i.ibb.co.com/Xsr5HwY/14-purple.png'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>(24,6,15,'https://i.ibb.co.com/Xsr5HwY/14-purple.png'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>(25,7,14,'https://i.ibb.co.com/wgM7L7S/14-silver.png'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>(26,6,14,'https://i.ibb.co.com/wgM7L7S/14-silver.png'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>27</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>(27,7,13,'https://i.ibb.co.com/101ZLzg/14-starlight.png'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>(28,6,13,'https://i.ibb.co.com/101ZLzg/14-starlight.png'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>(29,7,5,'https://i.ibb.co.com/dpYFTkc/14-yellow.png'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>(30,6,5,'https://i.ibb.co.com/dpYFTkc/14-yellow.png'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>31</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>(31,5,12,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>32</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>(32,4,12,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>33</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>(33,5,11,'https://i.ibb.co.com/3Mf7NJ0/14-pro-gold.png'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>34</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>(34,4,11,'https://i.ibb.co.com/3Mf7NJ0/14-pro-gold.png'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>35</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>(35,5,10,'https://i.ibb.co.com/PxpDYPG/14-pro-space-black.png'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>36</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>(36,4,10,'https://i.ibb.co.com/PxpDYPG/14-pro-space-black.png'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>37</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>(37,3,9,'https://i.ibb.co.com/w7ts4VZ/15-black.png'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>38</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>(38,2,9,'https://i.ibb.co.com/w7ts4VZ/15-black.png'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>39</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>(39,3,8,'https://i.ibb.co.com/VTMLcSj/15-blue.png'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>40</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>(40,2,8,'https://i.ibb.co.com/VTMLcSj/15-blue.png'),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>41</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>(41,3,7,'https://i.ibb.co.com/JpWXfJ4/15-green.png'),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>42</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>(42,2,7,'https://i.ibb.co.com/JpWXfJ4/15-green.png'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>43</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>(43,3,6,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>44</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>(44,2,6,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>45</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>(45,3,5,'https://i.ibb.co.com/JrzkGF3/15-yellow.png'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>46</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>(46,2,5,'https://i.ibb.co.com/JrzkGF3/15-yellow.png'),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>47</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>(47,1,3,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>48</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>(48,0,3,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>49</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>(49,1,2,'https://i.ibb.co.com/CBPmjq2/15-pro-blue-titanium.png'),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>50</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>(50,0,2,'https://i.ibb.co.com/CBPmjq2/15-pro-blue-titanium.png'),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>51</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>(51,1,1,'https://i.ibb.co.com/zGLg5Pn/15-pro-natural-titanium.png'),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>52</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>(52,0,1,'https://i.ibb.co.com/zGLg5Pn/15-pro-natural-titanium.png'),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>53</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>(53,1,4,'https://i.ibb.co.com/hgX9HRC/15-pro-white-titanium.png'),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>54</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>(54,0,4,'https://i.ibb.co.com/hgX9HRC/15-pro-white-titanium.png'),</v>
       </c>
     </row>
   </sheetData>
@@ -4559,7 +5618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E57B3A-6F49-4DA5-BA37-84B89A77526E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/database/data migration.xlsx
+++ b/database/data migration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\fair\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153D8BDE-9018-48D0-9D57-ADE8ACA60037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCC51A3-611F-46D6-9FDB-C4AB16BF7941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{12A069F4-CF4E-493D-AC4F-33E67FDDD4B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>https://i.ibb.co.com/zGLg5Pn/15-pro-natural-titanium.png</t>
+  </si>
+  <si>
+    <t>unit_storage_id</t>
   </si>
 </sst>
 </file>
@@ -954,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147116F5-6126-4A88-AD72-5DEFD4C3A13E}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="K32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S48" sqref="S48:S60"/>
     </sheetView>
   </sheetViews>
@@ -3567,7 +3570,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
         <v>90</v>
@@ -3623,12 +3626,12 @@
       </c>
       <c r="S49" t="str">
         <f>_xlfn.CONCAT("(",A49,",'",B49,"','",C49,"',",G49,",",H49,",'",I49,"','",J49,"','",K49,"','",L49,"','",M49,"','",N49,"','",P49,"',1,'",R49,"'),")</f>
-        <v>(0,'ip_15_pro_max','Iphone 15 Pro Max',0,0,'Super Retina OLED, 1242x2688','iOS 18.2.1','12MP(wide), 12MP(tele)','7MP','Apple A17 Pro (3nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
+        <v>(1,'ip_15_pro_max','Iphone 15 Pro Max',0,0,'Super Retina OLED, 1242x2688','iOS 18.2.1','12MP(wide), 12MP(tele)','7MP','Apple A17 Pro (3nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>91</v>
@@ -3675,12 +3678,12 @@
       </c>
       <c r="S50" t="str">
         <f t="shared" ref="S50:S60" si="7">_xlfn.CONCAT("(",A50,",'",B50,"','",C50,"',",G50,",",H50,",'",I50,"','",J50,"','",K50,"','",L50,"','",M50,"','",N50,"','",P50,"',1,'",R50,"'),")</f>
-        <v>(1,'ip_15_pro','Iphone 15 Pro',0,0,'Super Retina OLED, 1242x2689','iOS 18.2.2','12MP(wide), 12MP(tele)','7MP','Apple A17 Pro (3nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
+        <v>(2,'ip_15_pro','Iphone 15 Pro',0,0,'Super Retina OLED, 1242x2689','iOS 18.2.2','12MP(wide), 12MP(tele)','7MP','Apple A17 Pro (3nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>92</v>
@@ -3736,12 +3739,12 @@
       </c>
       <c r="S51" t="str">
         <f t="shared" si="7"/>
-        <v>(2,'ip_15_plus','Iphone 15 Plus',0,0,'Super Retina OLED, 1242x2690','iOS 18.2.3','12MP(wide)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
+        <v>(3,'ip_15_plus','Iphone 15 Plus',0,0,'Super Retina OLED, 1242x2690','iOS 18.2.3','12MP(wide)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>93</v>
@@ -3788,12 +3791,12 @@
       </c>
       <c r="S52" t="str">
         <f t="shared" si="7"/>
-        <v>(3,'ip_15','Iphone 15',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.4','12MP(wide)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
+        <v>(4,'ip_15','Iphone 15',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.4','12MP(wide)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>94</v>
@@ -3849,12 +3852,12 @@
       </c>
       <c r="S53" t="str">
         <f t="shared" si="7"/>
-        <v>(4,'ip_14_pro_max','Iphone 14 Pro Max',0,0,'Super Retina OLED, 1242x2692','iOS 18.2.5','12MP(wide), 12MP(tele)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
+        <v>(5,'ip_14_pro_max','Iphone 14 Pro Max',0,0,'Super Retina OLED, 1242x2692','iOS 18.2.5','12MP(wide), 12MP(tele)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>95</v>
@@ -3901,12 +3904,12 @@
       </c>
       <c r="S54" t="str">
         <f t="shared" si="7"/>
-        <v>(5,'ip_14_pro','Iphone 14 Pro',0,0,'Super Retina OLED, 1242x2693','iOS 18.2.6','12MP(wide), 12MP(tele)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
+        <v>(6,'ip_14_pro','Iphone 14 Pro',0,0,'Super Retina OLED, 1242x2693','iOS 18.2.6','12MP(wide), 12MP(tele)','7MP','Apple A16 Bionic (4nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>96</v>
@@ -3962,12 +3965,12 @@
       </c>
       <c r="S55" t="str">
         <f t="shared" si="7"/>
-        <v>(6,'ip_14_plus','Iphone 14 Plus',0,0,'Super Retina OLED, 1242x2694','iOS 18.2.7','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
+        <v>(7,'ip_14_plus','Iphone 14 Plus',0,0,'Super Retina OLED, 1242x2694','iOS 18.2.7','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>97</v>
@@ -4014,12 +4017,12 @@
       </c>
       <c r="S56" t="str">
         <f t="shared" si="7"/>
-        <v>(7,'ip_14','Iphone 14',0,0,'Super Retina OLED, 1242x2695','iOS 18.2.8','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
+        <v>(8,'ip_14','Iphone 14',0,0,'Super Retina OLED, 1242x2695','iOS 18.2.8','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>98</v>
@@ -4075,12 +4078,12 @@
       </c>
       <c r="S57" t="str">
         <f t="shared" si="7"/>
-        <v>(8,'ip_13_pro_max','Iphone 13 Pro Max',0,0,'Super Retina OLED, 1242x2696','iOS 18.2.9','12MP(wide), 12MP(tele)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
+        <v>(9,'ip_13_pro_max','Iphone 13 Pro Max',0,0,'Super Retina OLED, 1242x2696','iOS 18.2.9','12MP(wide), 12MP(tele)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
         <v>99</v>
@@ -4127,12 +4130,12 @@
       </c>
       <c r="S58" t="str">
         <f t="shared" si="7"/>
-        <v>(9,'ip_13_pro','Iphone 13 Pro',0,0,'Super Retina OLED, 1242x2697','iOS 18.2.10','12MP(wide), 12MP(tele)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
+        <v>(10,'ip_13_pro','Iphone 13 Pro',0,0,'Super Retina OLED, 1242x2697','iOS 18.2.10','12MP(wide), 12MP(tele)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
         <v>122</v>
@@ -4188,12 +4191,12 @@
       </c>
       <c r="S59" t="str">
         <f t="shared" si="7"/>
-        <v>(10,'ip_13_plus','Iphone 13 Plus',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.1','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
+        <v>(11,'ip_13_plus','Iphone 13 Plus',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.1','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
         <v>100</v>
@@ -4249,7 +4252,7 @@
       </c>
       <c r="S60" t="str">
         <f t="shared" si="7"/>
-        <v>(11,'ip_13','Iphone 13',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.1','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
+        <v>(12,'ip_13','Iphone 13',0,0,'Super Retina OLED, 1242x2691','iOS 18.2.1','12MP(wide)','7MP','Apple A15 Bionic (5nm)','Li-Ion 3174 mAh (12.08Wh)','157.5x77.4x7.7mm',1,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
       </c>
     </row>
   </sheetData>
@@ -4271,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8881C2B0-E8F1-4E72-B4F2-8D5DC553F0F0}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4618,7 +4621,7 @@
         <v>(20,'Red','#FF0000'),</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4651,7 +4654,7 @@
       </c>
       <c r="E24" t="str">
         <f>_xlfn.CONCAT("(",A24,",",B24,",",C24,",'",D24,"'),")</f>
-        <v>(1,11,8,'https://i.ibb.co.com/G54xHFz/13-blue.png'),</v>
+        <v>(1,12,8,'https://i.ibb.co.com/G54xHFz/13-blue.png'),</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4659,7 +4662,7 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4669,7 +4672,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" ref="E25:E77" si="1">_xlfn.CONCAT("(",A25,",",B25,",",C25,",'",D25,"'),")</f>
-        <v>(2,10,8,'https://i.ibb.co.com/G54xHFz/13-blue.png'),</v>
+        <v>(2,11,8,'https://i.ibb.co.com/G54xHFz/13-blue.png'),</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4677,7 +4680,7 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -4687,7 +4690,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
-        <v>(3,11,7,'https://i.ibb.co.com/SPc2cvr/13-Green.png'),</v>
+        <v>(3,12,7,'https://i.ibb.co.com/SPc2cvr/13-Green.png'),</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4695,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -4705,7 +4708,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
-        <v>(4,10,7,'https://i.ibb.co.com/SPc2cvr/13-Green.png'),</v>
+        <v>(4,11,7,'https://i.ibb.co.com/SPc2cvr/13-Green.png'),</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4713,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -4723,7 +4726,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
-        <v>(5,11,16,'https://i.ibb.co.com/zH0H4sf/13-Midnight.png'),</v>
+        <v>(5,12,16,'https://i.ibb.co.com/zH0H4sf/13-Midnight.png'),</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4731,7 +4734,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -4741,7 +4744,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
-        <v>(6,10,16,'https://i.ibb.co.com/zH0H4sf/13-Midnight.png'),</v>
+        <v>(6,11,16,'https://i.ibb.co.com/zH0H4sf/13-Midnight.png'),</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4749,7 +4752,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -4759,7 +4762,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
-        <v>(7,11,6,'https://i.ibb.co.com/2PbYkr7/13-pink.png'),</v>
+        <v>(7,12,6,'https://i.ibb.co.com/2PbYkr7/13-pink.png'),</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4767,7 +4770,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -4777,7 +4780,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
-        <v>(8,10,6,'https://i.ibb.co.com/2PbYkr7/13-pink.png'),</v>
+        <v>(8,11,6,'https://i.ibb.co.com/2PbYkr7/13-pink.png'),</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4785,7 +4788,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>20</v>
@@ -4795,7 +4798,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
-        <v>(9,11,20,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
+        <v>(9,12,20,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4803,7 +4806,7 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>20</v>
@@ -4813,7 +4816,7 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
-        <v>(10,10,20,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
+        <v>(10,11,20,'https://i.ibb.co.com/FbtvyjY/13-Red.png'),</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4821,7 +4824,7 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>19</v>
@@ -4831,7 +4834,7 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="1"/>
-        <v>(11,9,19,'https://i.ibb.co.com/WyPXmLy/13-pro-alpine-green.png'),</v>
+        <v>(11,10,19,'https://i.ibb.co.com/WyPXmLy/13-pro-alpine-green.png'),</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4839,7 +4842,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>19</v>
@@ -4849,7 +4852,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="1"/>
-        <v>(12,8,19,'https://i.ibb.co.com/WyPXmLy/13-pro-alpine-green.png'),</v>
+        <v>(12,9,19,'https://i.ibb.co.com/WyPXmLy/13-pro-alpine-green.png'),</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4857,7 +4860,7 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -4867,7 +4870,7 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="1"/>
-        <v>(13,9,11,'https://i.ibb.co.com/94KbKcg/13-pro-gold.png'),</v>
+        <v>(13,10,11,'https://i.ibb.co.com/94KbKcg/13-pro-gold.png'),</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4875,7 +4878,7 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>11</v>
@@ -4885,7 +4888,7 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="1"/>
-        <v>(14,8,11,'https://i.ibb.co.com/94KbKcg/13-pro-gold.png'),</v>
+        <v>(14,9,11,'https://i.ibb.co.com/94KbKcg/13-pro-gold.png'),</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4893,7 +4896,7 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>18</v>
@@ -4903,7 +4906,7 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="1"/>
-        <v>(15,9,18,'https://i.ibb.co.com/88kK672/13-pro-graphite.png'),</v>
+        <v>(15,10,18,'https://i.ibb.co.com/88kK672/13-pro-graphite.png'),</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4911,7 +4914,7 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>18</v>
@@ -4921,7 +4924,7 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="1"/>
-        <v>(16,8,18,'https://i.ibb.co.com/88kK672/13-pro-graphite.png'),</v>
+        <v>(16,9,18,'https://i.ibb.co.com/88kK672/13-pro-graphite.png'),</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4929,7 +4932,7 @@
         <v>17</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>17</v>
@@ -4939,7 +4942,7 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
-        <v>(17,9,17,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
+        <v>(17,10,17,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4947,7 +4950,7 @@
         <v>18</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>17</v>
@@ -4957,7 +4960,7 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
-        <v>(18,8,17,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
+        <v>(18,9,17,'https://i.ibb.co.com/Fn7MNv7/13-pro-sierra-blue.png'),</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4965,7 +4968,7 @@
         <v>19</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>14</v>
@@ -4975,7 +4978,7 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="1"/>
-        <v>(19,9,14,'https://i.ibb.co.com/SB0GZkY/13-pro-silver.png'),</v>
+        <v>(19,10,14,'https://i.ibb.co.com/SB0GZkY/13-pro-silver.png'),</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4983,7 +4986,7 @@
         <v>20</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>14</v>
@@ -4993,7 +4996,7 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
-        <v>(20,8,14,'https://i.ibb.co.com/SB0GZkY/13-pro-silver.png'),</v>
+        <v>(20,9,14,'https://i.ibb.co.com/SB0GZkY/13-pro-silver.png'),</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5001,7 +5004,7 @@
         <v>21</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -5011,7 +5014,7 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="1"/>
-        <v>(21,7,8,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
+        <v>(21,8,8,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5019,7 +5022,7 @@
         <v>22</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -5029,7 +5032,7 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
-        <v>(22,6,8,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
+        <v>(22,7,8,'https://i.ibb.co.com/gZJg5Z1/14-blue.png'),</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5037,7 +5040,7 @@
         <v>23</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>15</v>
@@ -5047,7 +5050,7 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="1"/>
-        <v>(23,7,15,'https://i.ibb.co.com/Xsr5HwY/14-purple.png'),</v>
+        <v>(23,8,15,'https://i.ibb.co.com/Xsr5HwY/14-purple.png'),</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -5055,7 +5058,7 @@
         <v>24</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>15</v>
@@ -5065,7 +5068,7 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="1"/>
-        <v>(24,6,15,'https://i.ibb.co.com/Xsr5HwY/14-purple.png'),</v>
+        <v>(24,7,15,'https://i.ibb.co.com/Xsr5HwY/14-purple.png'),</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5073,7 +5076,7 @@
         <v>25</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>14</v>
@@ -5083,7 +5086,7 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="1"/>
-        <v>(25,7,14,'https://i.ibb.co.com/wgM7L7S/14-silver.png'),</v>
+        <v>(25,8,14,'https://i.ibb.co.com/wgM7L7S/14-silver.png'),</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -5091,7 +5094,7 @@
         <v>26</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <v>14</v>
@@ -5101,7 +5104,7 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
-        <v>(26,6,14,'https://i.ibb.co.com/wgM7L7S/14-silver.png'),</v>
+        <v>(26,7,14,'https://i.ibb.co.com/wgM7L7S/14-silver.png'),</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -5109,7 +5112,7 @@
         <v>27</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>13</v>
@@ -5119,7 +5122,7 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="1"/>
-        <v>(27,7,13,'https://i.ibb.co.com/101ZLzg/14-starlight.png'),</v>
+        <v>(27,8,13,'https://i.ibb.co.com/101ZLzg/14-starlight.png'),</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5127,7 +5130,7 @@
         <v>28</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <v>13</v>
@@ -5137,7 +5140,7 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
-        <v>(28,6,13,'https://i.ibb.co.com/101ZLzg/14-starlight.png'),</v>
+        <v>(28,7,13,'https://i.ibb.co.com/101ZLzg/14-starlight.png'),</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -5145,7 +5148,7 @@
         <v>29</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5155,7 +5158,7 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="1"/>
-        <v>(29,7,5,'https://i.ibb.co.com/dpYFTkc/14-yellow.png'),</v>
+        <v>(29,8,5,'https://i.ibb.co.com/dpYFTkc/14-yellow.png'),</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -5163,7 +5166,7 @@
         <v>30</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5173,7 +5176,7 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
-        <v>(30,6,5,'https://i.ibb.co.com/dpYFTkc/14-yellow.png'),</v>
+        <v>(30,7,5,'https://i.ibb.co.com/dpYFTkc/14-yellow.png'),</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5181,7 +5184,7 @@
         <v>31</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54">
         <v>12</v>
@@ -5191,7 +5194,7 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
-        <v>(31,5,12,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
+        <v>(31,6,12,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -5199,7 +5202,7 @@
         <v>32</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>12</v>
@@ -5209,7 +5212,7 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
-        <v>(32,4,12,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
+        <v>(32,5,12,'https://i.ibb.co.com/Ytxj2wP/14-pro-deep-purple.png'),</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -5217,7 +5220,7 @@
         <v>33</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>11</v>
@@ -5227,7 +5230,7 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
-        <v>(33,5,11,'https://i.ibb.co.com/3Mf7NJ0/14-pro-gold.png'),</v>
+        <v>(33,6,11,'https://i.ibb.co.com/3Mf7NJ0/14-pro-gold.png'),</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5235,7 +5238,7 @@
         <v>34</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>11</v>
@@ -5245,7 +5248,7 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="1"/>
-        <v>(34,4,11,'https://i.ibb.co.com/3Mf7NJ0/14-pro-gold.png'),</v>
+        <v>(34,5,11,'https://i.ibb.co.com/3Mf7NJ0/14-pro-gold.png'),</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5253,7 +5256,7 @@
         <v>35</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58">
         <v>10</v>
@@ -5263,7 +5266,7 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="1"/>
-        <v>(35,5,10,'https://i.ibb.co.com/PxpDYPG/14-pro-space-black.png'),</v>
+        <v>(35,6,10,'https://i.ibb.co.com/PxpDYPG/14-pro-space-black.png'),</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5271,7 +5274,7 @@
         <v>36</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -5281,7 +5284,7 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
-        <v>(36,4,10,'https://i.ibb.co.com/PxpDYPG/14-pro-space-black.png'),</v>
+        <v>(36,5,10,'https://i.ibb.co.com/PxpDYPG/14-pro-space-black.png'),</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5289,7 +5292,7 @@
         <v>37</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>9</v>
@@ -5299,7 +5302,7 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
-        <v>(37,3,9,'https://i.ibb.co.com/w7ts4VZ/15-black.png'),</v>
+        <v>(37,4,9,'https://i.ibb.co.com/w7ts4VZ/15-black.png'),</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5307,7 +5310,7 @@
         <v>38</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -5317,7 +5320,7 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
-        <v>(38,2,9,'https://i.ibb.co.com/w7ts4VZ/15-black.png'),</v>
+        <v>(38,3,9,'https://i.ibb.co.com/w7ts4VZ/15-black.png'),</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5325,7 +5328,7 @@
         <v>39</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -5335,7 +5338,7 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
-        <v>(39,3,8,'https://i.ibb.co.com/VTMLcSj/15-blue.png'),</v>
+        <v>(39,4,8,'https://i.ibb.co.com/VTMLcSj/15-blue.png'),</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5343,7 +5346,7 @@
         <v>40</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -5353,7 +5356,7 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
-        <v>(40,2,8,'https://i.ibb.co.com/VTMLcSj/15-blue.png'),</v>
+        <v>(40,3,8,'https://i.ibb.co.com/VTMLcSj/15-blue.png'),</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5361,7 +5364,7 @@
         <v>41</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -5371,7 +5374,7 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
-        <v>(41,3,7,'https://i.ibb.co.com/JpWXfJ4/15-green.png'),</v>
+        <v>(41,4,7,'https://i.ibb.co.com/JpWXfJ4/15-green.png'),</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5379,7 +5382,7 @@
         <v>42</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -5389,7 +5392,7 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
-        <v>(42,2,7,'https://i.ibb.co.com/JpWXfJ4/15-green.png'),</v>
+        <v>(42,3,7,'https://i.ibb.co.com/JpWXfJ4/15-green.png'),</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5397,7 +5400,7 @@
         <v>43</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -5407,7 +5410,7 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" si="1"/>
-        <v>(43,3,6,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
+        <v>(43,4,6,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5415,7 +5418,7 @@
         <v>44</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -5425,7 +5428,7 @@
       </c>
       <c r="E67" t="str">
         <f t="shared" si="1"/>
-        <v>(44,2,6,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
+        <v>(44,3,6,'https://i.ibb.co.com/DkrrNG3/15-pink.png'),</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5433,7 +5436,7 @@
         <v>45</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -5443,7 +5446,7 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>(45,3,5,'https://i.ibb.co.com/JrzkGF3/15-yellow.png'),</v>
+        <v>(45,4,5,'https://i.ibb.co.com/JrzkGF3/15-yellow.png'),</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5451,7 +5454,7 @@
         <v>46</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -5461,7 +5464,7 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>(46,2,5,'https://i.ibb.co.com/JrzkGF3/15-yellow.png'),</v>
+        <v>(46,3,5,'https://i.ibb.co.com/JrzkGF3/15-yellow.png'),</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5469,7 +5472,7 @@
         <v>47</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -5479,7 +5482,7 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>(47,1,3,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
+        <v>(47,2,3,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5487,7 +5490,7 @@
         <v>48</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -5497,7 +5500,7 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>(48,0,3,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
+        <v>(48,1,3,'https://i.ibb.co.com/QX5Khmk/15-pro-black-titanium.png'),</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5505,7 +5508,7 @@
         <v>49</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -5515,7 +5518,7 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>(49,1,2,'https://i.ibb.co.com/CBPmjq2/15-pro-blue-titanium.png'),</v>
+        <v>(49,2,2,'https://i.ibb.co.com/CBPmjq2/15-pro-blue-titanium.png'),</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5523,7 +5526,7 @@
         <v>50</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -5533,7 +5536,7 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>(50,0,2,'https://i.ibb.co.com/CBPmjq2/15-pro-blue-titanium.png'),</v>
+        <v>(50,1,2,'https://i.ibb.co.com/CBPmjq2/15-pro-blue-titanium.png'),</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5541,7 +5544,7 @@
         <v>51</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -5551,7 +5554,7 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>(51,1,1,'https://i.ibb.co.com/zGLg5Pn/15-pro-natural-titanium.png'),</v>
+        <v>(51,2,1,'https://i.ibb.co.com/zGLg5Pn/15-pro-natural-titanium.png'),</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5559,7 +5562,7 @@
         <v>52</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -5569,7 +5572,7 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>(52,0,1,'https://i.ibb.co.com/zGLg5Pn/15-pro-natural-titanium.png'),</v>
+        <v>(52,1,1,'https://i.ibb.co.com/zGLg5Pn/15-pro-natural-titanium.png'),</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5577,7 +5580,7 @@
         <v>53</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -5587,7 +5590,7 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>(53,1,4,'https://i.ibb.co.com/hgX9HRC/15-pro-white-titanium.png'),</v>
+        <v>(53,2,4,'https://i.ibb.co.com/hgX9HRC/15-pro-white-titanium.png'),</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5595,7 +5598,7 @@
         <v>54</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -5605,7 +5608,7 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>(54,0,4,'https://i.ibb.co.com/hgX9HRC/15-pro-white-titanium.png'),</v>
+        <v>(54,1,4,'https://i.ibb.co.com/hgX9HRC/15-pro-white-titanium.png'),</v>
       </c>
     </row>
   </sheetData>
@@ -5616,16 +5619,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E57B3A-6F49-4DA5-BA37-84B89A77526E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5700,6 +5704,741 @@
         <v>(5,'1TB'),</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO `iphone_storages` (`",A8,"`,`",B8,"`,`",C8,"`) VALUES")</f>
+        <v>INSERT INTO `iphone_storages` (`id`,`iphone_id`,`unit_storage_id`) VALUES</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("(",A9,",",B9,",",C9,"),")</f>
+        <v>(1,12,2),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10:D56" si="1">_xlfn.CONCAT("(",A10,",",B10,",",C10,"),")</f>
+        <v>(2,12,3),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>(3,12,4),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>(4,12,5),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>(5,11,2),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>(6,11,3),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>(7,11,4),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>(8,11,5),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>(9,10,2),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,10,3),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>(11,10,4),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>(12,10,5),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>(13,9,2),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>(14,9,3),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>(15,9,4),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>(16,9,5),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>(17,8,2),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>(18,8,3),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>(19,8,4),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>(20,8,5),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>(21,7,2),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>(22,7,3),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>(23,7,4),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>(24,7,5),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>(25,6,2),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>(26,6,3),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>(27,6,4),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>(28,6,5),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>(29,5,2),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>(30,5,3),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>(31,5,4),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>(32,5,5),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>(33,4,2),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>(34,4,3),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>(35,4,4),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>(36,4,5),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>(37,3,2),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>(38,3,3),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>(39,3,4),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>(40,3,5),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>(41,2,2),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>(42,2,3),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>(43,2,4),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>(44,2,5),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>(45,1,2),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>46</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>(46,1,3),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>47</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>(47,1,4),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>48</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>(48,1,5),</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
